--- a/biology/Zoologie/Anolis_aquaticus/Anolis_aquaticus.xlsx
+++ b/biology/Zoologie/Anolis_aquaticus/Anolis_aquaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis aquaticus, aussi appelé anole d'eau, est une espèce de sauriens de la famille des Dactyloidae[1]. Originaire d'Amérique centrale, ce lézard montre des adaptations lui permettant rester une quinzaine de minutes sous l'eau en formant une bulle qui reste collée à sa tête et sert à recycler sa réserve d'air pendant la plongée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis aquaticus, aussi appelé anole d'eau, est une espèce de sauriens de la famille des Dactyloidae. Originaire d'Amérique centrale, ce lézard montre des adaptations lui permettant rester une quinzaine de minutes sous l'eau en formant une bulle qui reste collée à sa tête et sert à recycler sa réserve d'air pendant la plongée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre principalement au Costa Rica et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre principalement au Costa Rica et au Panama.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Taylor, 1956 : A review of the lizards of Costa Rica. The University of Kansas science Bulletin, vol. 38, no 1, p. 3-322 (texte intégral).</t>
         </is>
